--- a/data/trans_orig/P1803_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>22436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13838</v>
+        <v>14744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32932</v>
+        <v>33178</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07637543323884496</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04710761086767688</v>
+        <v>0.05019089339601449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1121048332894077</v>
+        <v>0.1129437811115705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -763,19 +763,19 @@
         <v>33319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23520</v>
+        <v>23115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45867</v>
+        <v>45435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1154105214339001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08146862283556927</v>
+        <v>0.08006573266155974</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1588727123705998</v>
+        <v>0.1573778304999584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -784,19 +784,19 @@
         <v>55755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42257</v>
+        <v>42741</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73134</v>
+        <v>71483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09572349088409413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07254831580185399</v>
+        <v>0.07338039469455182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1255600939217106</v>
+        <v>0.1227247097130638</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>271325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>260829</v>
+        <v>260583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279923</v>
+        <v>279017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.923624566761155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8878951667105924</v>
+        <v>0.8870562188884296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9528923891323231</v>
+        <v>0.9498091066039855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -834,19 +834,19 @@
         <v>255384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242836</v>
+        <v>243268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265183</v>
+        <v>265588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8845894785660999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8411272876294003</v>
+        <v>0.8426221695000414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9185313771644307</v>
+        <v>0.9199342673384403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>489</v>
@@ -855,19 +855,19 @@
         <v>526709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>509330</v>
+        <v>510981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540207</v>
+        <v>539723</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9042765091159058</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8744399060782894</v>
+        <v>0.8772752902869358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9274516841981459</v>
+        <v>0.926619605305448</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>10571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5346</v>
+        <v>4740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19326</v>
+        <v>20395</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02103404434253876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01063782150734378</v>
+        <v>0.009431834680195214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03845439815551742</v>
+        <v>0.04058100461820673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -980,19 +980,19 @@
         <v>14012</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7589</v>
+        <v>8179</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23248</v>
+        <v>23794</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0267874122086776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01450791096322799</v>
+        <v>0.01563630608867117</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04444500833063477</v>
+        <v>0.04548773977650627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1001,19 +1001,19 @@
         <v>24583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15366</v>
+        <v>15205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35847</v>
+        <v>36637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02396824919625576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0149817096272963</v>
+        <v>0.0148243321977778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03494986431620344</v>
+        <v>0.0357199965930879</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>492004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483249</v>
+        <v>482180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497229</v>
+        <v>497835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9789659556574613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615456018444829</v>
+        <v>0.959418995381794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9893621784926564</v>
+        <v>0.9905681653198052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>471</v>
@@ -1051,19 +1051,19 @@
         <v>509072</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499836</v>
+        <v>499290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515495</v>
+        <v>514905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9732125877913224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9555549916693652</v>
+        <v>0.9545122602234937</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.985492089036772</v>
+        <v>0.9843636939113288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>937</v>
@@ -1072,19 +1072,19 @@
         <v>1001076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>989812</v>
+        <v>989022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1010293</v>
+        <v>1010454</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9760317508037443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9650501356837966</v>
+        <v>0.9642800034069121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9850182903727037</v>
+        <v>0.9851756678022223</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1797</v>
+        <v>1847</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12055</v>
+        <v>12116</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01650650521186201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005640662957721407</v>
+        <v>0.005797997641245643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03784300959338507</v>
+        <v>0.03803183202282847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1197,19 +1197,19 @@
         <v>7089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2997</v>
+        <v>2988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13973</v>
+        <v>13905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02107968893345919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008912490688926375</v>
+        <v>0.008885701995008518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04154713167586803</v>
+        <v>0.04134562739018428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1218,19 +1218,19 @@
         <v>12348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6458</v>
+        <v>6512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21833</v>
+        <v>20632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0188550529543257</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009861224053754763</v>
+        <v>0.009944247372294367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03333953982129197</v>
+        <v>0.03150554566168425</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>313307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306510</v>
+        <v>306449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316768</v>
+        <v>316718</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.983493494788138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9621569904066148</v>
+        <v>0.9619681679771716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943593370422786</v>
+        <v>0.9942020023587543</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -1268,19 +1268,19 @@
         <v>329220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322336</v>
+        <v>322404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333312</v>
+        <v>333321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9789203110665408</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9584528683241322</v>
+        <v>0.9586543726098158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9910875093110736</v>
+        <v>0.9911142980049915</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -1289,19 +1289,19 @@
         <v>642526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633041</v>
+        <v>634242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648416</v>
+        <v>648362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9811449470456743</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9666604601787081</v>
+        <v>0.9684944543383158</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9901387759462453</v>
+        <v>0.9900557526277056</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>28204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17896</v>
+        <v>18744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39830</v>
+        <v>40525</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07623310303826948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04837297298958004</v>
+        <v>0.05066528504025983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.107658645043903</v>
+        <v>0.1095365050973194</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1414,19 +1414,19 @@
         <v>26570</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18221</v>
+        <v>17151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38461</v>
+        <v>37937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06860500682833003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04704904684579277</v>
+        <v>0.04428527670347432</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09931105426616317</v>
+        <v>0.09795579966304209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -1435,19 +1435,19 @@
         <v>54773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40623</v>
+        <v>41428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69999</v>
+        <v>70659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07233182380608859</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05364530636545476</v>
+        <v>0.05470891326459365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09243904280774626</v>
+        <v>0.0933101229096711</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>341760</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>330134</v>
+        <v>329439</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>352068</v>
+        <v>351220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9237668969617305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8923413549560972</v>
+        <v>0.8904634949026805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.95162702701042</v>
+        <v>0.94933471495974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -1485,19 +1485,19 @@
         <v>360713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348822</v>
+        <v>349346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369062</v>
+        <v>370132</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.93139499317167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9006889457338366</v>
+        <v>0.9020442003369579</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.952950953154207</v>
+        <v>0.9557147232965256</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>661</v>
@@ -1506,19 +1506,19 @@
         <v>702474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>687248</v>
+        <v>686588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716624</v>
+        <v>715819</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9276681761939114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9075609571922535</v>
+        <v>0.9066898770903289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9463546936345453</v>
+        <v>0.9452910867354064</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>4534</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10902</v>
+        <v>9474</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02146655731560161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008030614086239717</v>
+        <v>0.008034193585032942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05161446353786606</v>
+        <v>0.04485165333509356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1634,16 +1634,16 @@
         <v>3974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15220</v>
+        <v>15881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03813890734567561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01817885423850241</v>
+        <v>0.01818144049095399</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.069629895706705</v>
+        <v>0.07265466909464435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1652,19 +1652,19 @@
         <v>12871</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7248</v>
+        <v>6881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21864</v>
+        <v>20938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02994559677226063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01686319042863258</v>
+        <v>0.01600848968948412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05086848314523128</v>
+        <v>0.0487154296223766</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>206687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200319</v>
+        <v>201747</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209525</v>
+        <v>209524</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9785334426843983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9483855364621347</v>
+        <v>0.9551483466649062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9919693859137604</v>
+        <v>0.991965806414967</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -1702,7 +1702,7 @@
         <v>210250</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203367</v>
+        <v>202706</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>214613</v>
@@ -1711,10 +1711,10 @@
         <v>0.9618610926543244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.930370104293295</v>
+        <v>0.9273453309053562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.981821145761498</v>
+        <v>0.9818185595090461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>422</v>
@@ -1723,19 +1723,19 @@
         <v>416937</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407944</v>
+        <v>408870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422560</v>
+        <v>422927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9700544032277394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9491315168547685</v>
+        <v>0.9512845703776237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9831368095713674</v>
+        <v>0.9839915103105159</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>19912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12015</v>
+        <v>12481</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29990</v>
+        <v>32393</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07567472299682104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04566184207218642</v>
+        <v>0.0474326998559786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1139779290608555</v>
+        <v>0.1231109306466817</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1848,19 +1848,19 @@
         <v>12077</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6139</v>
+        <v>6069</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19792</v>
+        <v>20040</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04421820474837573</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02247666731647949</v>
+        <v>0.02221980828758301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07246700156816482</v>
+        <v>0.07337702495091221</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1869,19 +1869,19 @@
         <v>31988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21463</v>
+        <v>21663</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44071</v>
+        <v>44495</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05965339104856741</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0400253670335675</v>
+        <v>0.04039841215990597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08218582280976247</v>
+        <v>0.08297536447491746</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>243211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233133</v>
+        <v>230730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251108</v>
+        <v>250642</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9243252770031789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.886022070939145</v>
+        <v>0.8768890693533183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9543381579278136</v>
+        <v>0.9525673001440215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -1919,19 +1919,19 @@
         <v>261038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253323</v>
+        <v>253075</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266976</v>
+        <v>267046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9557817952516242</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9275329984318353</v>
+        <v>0.9266229750490877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9775233326835205</v>
+        <v>0.9777801917124169</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>492</v>
@@ -1940,19 +1940,19 @@
         <v>504250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>492167</v>
+        <v>491743</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>514775</v>
+        <v>514575</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9403466089514326</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9178141771902376</v>
+        <v>0.9170246355250826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9599746329664329</v>
+        <v>0.9596015878400942</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>33865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22980</v>
+        <v>23600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47162</v>
+        <v>47472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05157965134077517</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03499995798504572</v>
+        <v>0.0359447694379344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07183243283845188</v>
+        <v>0.07230461202368185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2065,19 +2065,19 @@
         <v>39003</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27976</v>
+        <v>27105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53872</v>
+        <v>51660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05641975512071371</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04046892479695886</v>
+        <v>0.03920859632859142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07792937800155479</v>
+        <v>0.07472899428977882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2086,19 +2086,19 @@
         <v>72868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56123</v>
+        <v>54914</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90850</v>
+        <v>90885</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0540620713029276</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0416387597920593</v>
+        <v>0.04074168464829333</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06740376083996404</v>
+        <v>0.06742950652437121</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>622693</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>609396</v>
+        <v>609086</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>633578</v>
+        <v>632958</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9484203486592249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9281675671615482</v>
+        <v>0.9276953879763183</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9650000420149543</v>
+        <v>0.9640552305620657</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>611</v>
@@ -2136,19 +2136,19 @@
         <v>652291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>637422</v>
+        <v>639634</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663318</v>
+        <v>664189</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9435802448792863</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9220706219984454</v>
+        <v>0.9252710057102216</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9595310752030412</v>
+        <v>0.9607914036714087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1162</v>
@@ -2157,19 +2157,19 @@
         <v>1274984</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1257002</v>
+        <v>1256967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1291729</v>
+        <v>1292938</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9459379286970724</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.932596239160036</v>
+        <v>0.9325704934756288</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9583612402079409</v>
+        <v>0.9592583153517067</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>30725</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21458</v>
+        <v>21173</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44543</v>
+        <v>43361</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03946238588848465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02756021043556781</v>
+        <v>0.02719482548703141</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05721060011431706</v>
+        <v>0.05569226133898793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2282,19 +2282,19 @@
         <v>55300</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41232</v>
+        <v>40664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72166</v>
+        <v>71732</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06693592028826288</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04990758933145586</v>
+        <v>0.04922035134636091</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08735087464194154</v>
+        <v>0.08682502750706304</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2303,19 +2303,19 @@
         <v>86025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69384</v>
+        <v>69641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107121</v>
+        <v>106768</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05360647535188102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04323655660453405</v>
+        <v>0.04339670983453565</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06675249050354988</v>
+        <v>0.0665327679917332</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>747858</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>734040</v>
+        <v>735222</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>757125</v>
+        <v>757410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9605376141115154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.942789399885683</v>
+        <v>0.9443077386610121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9724397895644322</v>
+        <v>0.9728051745129686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>706</v>
@@ -2353,19 +2353,19 @@
         <v>770867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>754001</v>
+        <v>754435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>784935</v>
+        <v>785503</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9330640797117371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9126491253580585</v>
+        <v>0.9131749724929369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9500924106685442</v>
+        <v>0.9507796486536391</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1428</v>
@@ -2374,19 +2374,19 @@
         <v>1518725</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1497629</v>
+        <v>1497982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1535366</v>
+        <v>1535109</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.946393524648119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9332475094964497</v>
+        <v>0.9334672320082666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9567634433954658</v>
+        <v>0.956603290165464</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>155505</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0458128717987772</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>181</v>
@@ -2499,19 +2499,19 @@
         <v>195706</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05521347562307298</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>323</v>
@@ -2520,19 +2520,19 @@
         <v>351211</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05061491129271722</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3238845</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3212276</v>
+        <v>3212732</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3263223</v>
+        <v>3263174</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9541871282012228</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.946359706535297</v>
+        <v>0.9464940742131573</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9613689630254117</v>
+        <v>0.9613545626941505</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3157</v>
@@ -2570,19 +2570,19 @@
         <v>3348836</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3317585</v>
+        <v>3318490</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3375921</v>
+        <v>3377287</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.944786524376927</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9359699619605575</v>
+        <v>0.9362254504791531</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.952427992834347</v>
+        <v>0.9528134531070025</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6246</v>
@@ -2591,19 +2591,19 @@
         <v>6587681</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6546216</v>
+        <v>6549777</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6625774</v>
+        <v>6623320</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9493850887072828</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9434094017412107</v>
+        <v>0.9439226148209953</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9548749926503742</v>
+        <v>0.9545212746748049</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>43214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32453</v>
+        <v>33015</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55939</v>
+        <v>56232</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1355315085628354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1017830776106475</v>
+        <v>0.1035444636964652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1754423275897816</v>
+        <v>0.1763611258638576</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2960,19 +2960,19 @@
         <v>62455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52024</v>
+        <v>52470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74859</v>
+        <v>74327</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1976029641543132</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.164601422443055</v>
+        <v>0.1660133924330209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2368509804826739</v>
+        <v>0.2351653097672895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -2981,19 +2981,19 @@
         <v>105668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90515</v>
+        <v>90586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123368</v>
+        <v>124129</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1664311165534153</v>
+        <v>0.1664311165534152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1425638695612225</v>
+        <v>0.1426761582417866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1943085884216595</v>
+        <v>0.1955081320065095</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>275631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262906</v>
+        <v>262613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286392</v>
+        <v>285830</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8644684914371646</v>
+        <v>0.8644684914371648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.824557672410219</v>
+        <v>0.8236388741361426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8982169223893532</v>
+        <v>0.8964555363035348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>433</v>
@@ -3031,19 +3031,19 @@
         <v>253606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241202</v>
+        <v>241734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>264037</v>
+        <v>263591</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8023970358456867</v>
+        <v>0.8023970358456869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7631490195173259</v>
+        <v>0.7648346902327103</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8353985775569448</v>
+        <v>0.8339866075669792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -3052,19 +3052,19 @@
         <v>529238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>511538</v>
+        <v>510777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>544391</v>
+        <v>544320</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8335688834465846</v>
+        <v>0.8335688834465849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8056914115783406</v>
+        <v>0.8044918679934908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8574361304387775</v>
+        <v>0.8573238417582136</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>30188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18169</v>
+        <v>18880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46697</v>
+        <v>49043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05688828920311297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03423893543976806</v>
+        <v>0.03557888308373951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08800001090149755</v>
+        <v>0.09242023146907979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -3177,19 +3177,19 @@
         <v>44828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33156</v>
+        <v>34388</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59476</v>
+        <v>59326</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08222086469070052</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06081353661685836</v>
+        <v>0.06307275316645194</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1090874929126268</v>
+        <v>0.1088118902550615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -3198,19 +3198,19 @@
         <v>75015</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58541</v>
+        <v>58183</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96096</v>
+        <v>95591</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06972606914400591</v>
+        <v>0.06972606914400592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05441366458341376</v>
+        <v>0.05408061958168611</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08932061314482057</v>
+        <v>0.08885115993930455</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>500459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483950</v>
+        <v>481604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512478</v>
+        <v>511767</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9431117107968869</v>
+        <v>0.943111710796887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9119999890985021</v>
+        <v>0.9075797685309204</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9657610645602319</v>
+        <v>0.9644211169162606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>660</v>
@@ -3248,19 +3248,19 @@
         <v>500385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485737</v>
+        <v>485887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512057</v>
+        <v>510825</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9177791353092994</v>
+        <v>0.9177791353092996</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8909125070873732</v>
+        <v>0.8911881097449383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9391864633831417</v>
+        <v>0.936927246833548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -3269,19 +3269,19 @@
         <v>1000845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>979764</v>
+        <v>980269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017319</v>
+        <v>1017677</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9302739308559942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9106793868551797</v>
+        <v>0.9111488400606954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9455863354165863</v>
+        <v>0.9459193804183138</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>32744</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23925</v>
+        <v>22764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45698</v>
+        <v>44137</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1036216976509937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07571237837722321</v>
+        <v>0.07204028606002505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1446187075798908</v>
+        <v>0.1396768340697083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3394,19 +3394,19 @@
         <v>42508</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33275</v>
+        <v>32660</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53630</v>
+        <v>54102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1194588959428282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09351018777913048</v>
+        <v>0.09178110235141439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1507125052401657</v>
+        <v>0.1520380610109615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -3415,19 +3415,19 @@
         <v>75252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62445</v>
+        <v>61300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91248</v>
+        <v>90163</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.11200997667381</v>
+        <v>0.1120099766738101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09294645401571897</v>
+        <v>0.09124242037999687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1358192924508231</v>
+        <v>0.1342032948567864</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>283249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270295</v>
+        <v>271856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>292068</v>
+        <v>293229</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8963783023490063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8553812924201094</v>
+        <v>0.8603231659302919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9242876216227768</v>
+        <v>0.9279597139399751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>471</v>
@@ -3465,19 +3465,19 @@
         <v>313334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302212</v>
+        <v>301740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322567</v>
+        <v>323182</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8805411040571719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8492874947598343</v>
+        <v>0.8479619389890385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9064898122208698</v>
+        <v>0.9082188976485855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>795</v>
@@ -3486,19 +3486,19 @@
         <v>596584</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>580588</v>
+        <v>581673</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609391</v>
+        <v>610536</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8879900233261899</v>
+        <v>0.88799002332619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8641807075491772</v>
+        <v>0.8657967051432138</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9070535459842811</v>
+        <v>0.9087575796200035</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>36289</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24681</v>
+        <v>24266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51158</v>
+        <v>53256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09725077476372661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06614403155815246</v>
+        <v>0.06502989435667271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1370989829639956</v>
+        <v>0.1427227234798372</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3611,19 +3611,19 @@
         <v>47932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37314</v>
+        <v>37059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59868</v>
+        <v>60567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1135942094440076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08843013003510432</v>
+        <v>0.08782628313271881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1418805602520658</v>
+        <v>0.1435368187203942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3632,19 +3632,19 @@
         <v>84221</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68349</v>
+        <v>67829</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101666</v>
+        <v>104452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1059242009534093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08596231907643286</v>
+        <v>0.08530854548613619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1278651769963847</v>
+        <v>0.1313685127078339</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>336856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>321987</v>
+        <v>319889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348464</v>
+        <v>348879</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9027492252362735</v>
+        <v>0.9027492252362734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8629010170360042</v>
+        <v>0.8572772765201627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9338559684418475</v>
+        <v>0.9349701056433276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -3682,19 +3682,19 @@
         <v>374029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362093</v>
+        <v>361394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384647</v>
+        <v>384902</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8864057905559924</v>
+        <v>0.8864057905559926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8581194397479337</v>
+        <v>0.8564631812796061</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9115698699648954</v>
+        <v>0.9121737168672812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>782</v>
@@ -3703,19 +3703,19 @@
         <v>710886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>693441</v>
+        <v>690655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>726758</v>
+        <v>727278</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8940757990465908</v>
+        <v>0.8940757990465905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8721348230036152</v>
+        <v>0.8686314872921662</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9140376809235672</v>
+        <v>0.9146914545138638</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>7641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3457</v>
+        <v>3586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14946</v>
+        <v>16548</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03715123892016325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01681005419973309</v>
+        <v>0.01743473993505389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07267229219028341</v>
+        <v>0.08045896574586719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3828,19 +3828,19 @@
         <v>6532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3475</v>
+        <v>3821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11305</v>
+        <v>11679</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02874959005486503</v>
+        <v>0.02874959005486502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01529171419118694</v>
+        <v>0.01681836640334655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04975390562712097</v>
+        <v>0.05140079946810953</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3849,19 +3849,19 @@
         <v>14173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8864</v>
+        <v>8811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21400</v>
+        <v>22550</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03274128542330695</v>
+        <v>0.03274128542330694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0204772909708025</v>
+        <v>0.02035450339850622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04943709482416545</v>
+        <v>0.05209372773617182</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>198024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190719</v>
+        <v>189117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202208</v>
+        <v>202079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9628487610798367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9273277078097162</v>
+        <v>0.919541034254133</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9831899458002668</v>
+        <v>0.9825652600649463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>478</v>
@@ -3899,19 +3899,19 @@
         <v>220683</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215910</v>
+        <v>215536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>223740</v>
+        <v>223394</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9712504099451351</v>
+        <v>0.9712504099451349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9502460943728792</v>
+        <v>0.9485992005318905</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.984708285808813</v>
+        <v>0.9831816335966534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>749</v>
@@ -3920,19 +3920,19 @@
         <v>418706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411479</v>
+        <v>410329</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424015</v>
+        <v>424068</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9672587145766932</v>
+        <v>0.9672587145766931</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9505629051758346</v>
+        <v>0.9479062722638283</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9795227090291977</v>
+        <v>0.9796454966014938</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>22594</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15822</v>
+        <v>14192</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32635</v>
+        <v>31794</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08346158648534366</v>
+        <v>0.08346158648534367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05844855341274563</v>
+        <v>0.05242620731038024</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1205564184876796</v>
+        <v>0.1174483394114693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4045,19 +4045,19 @@
         <v>35829</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28495</v>
+        <v>28278</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45257</v>
+        <v>45724</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1358459016271076</v>
+        <v>0.1358459016271075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.108038857206729</v>
+        <v>0.107216525764369</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1715891540463018</v>
+        <v>0.1733626431099373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -4066,19 +4066,19 @@
         <v>58423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46448</v>
+        <v>47061</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71031</v>
+        <v>70644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1093128175477134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08690753540382218</v>
+        <v>0.08805414592579767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1329035018288797</v>
+        <v>0.1321789268110018</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>248113</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238072</v>
+        <v>238913</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254885</v>
+        <v>256515</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9165384135146564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8794435815123204</v>
+        <v>0.882551660588531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9415514465872542</v>
+        <v>0.9475737926896198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>397</v>
@@ -4116,19 +4116,19 @@
         <v>227921</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>218493</v>
+        <v>218026</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>235255</v>
+        <v>235472</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8641540983728926</v>
+        <v>0.8641540983728923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8284108459536983</v>
+        <v>0.8266373568900627</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.891961142793271</v>
+        <v>0.892783474235631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>740</v>
@@ -4137,19 +4137,19 @@
         <v>476034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>463426</v>
+        <v>463813</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488009</v>
+        <v>487396</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8906871824522866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8670964981711203</v>
+        <v>0.8678210731889983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9130924645961779</v>
+        <v>0.9119458540742024</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>90905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69679</v>
+        <v>71481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113661</v>
+        <v>112563</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1263111666412337</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09681786223239297</v>
+        <v>0.09932227274363263</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1579307177798463</v>
+        <v>0.1564058522518934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>147</v>
@@ -4262,19 +4262,19 @@
         <v>110666</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94698</v>
+        <v>93486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127739</v>
+        <v>128772</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1433386708147089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1226570482529259</v>
+        <v>0.1210867485376914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1654522946566752</v>
+        <v>0.1667903595669113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -4283,19 +4283,19 @@
         <v>201570</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175335</v>
+        <v>173575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228263</v>
+        <v>229240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1351238057372426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1175371747394168</v>
+        <v>0.1163568097916154</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1530175254541831</v>
+        <v>0.1536728080415929</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>628782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>606026</v>
+        <v>607124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>650008</v>
+        <v>648206</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8736888333587663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8420692822201536</v>
+        <v>0.8435941477481056</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.903182137767607</v>
+        <v>0.9006777272563672</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>813</v>
@@ -4333,19 +4333,19 @@
         <v>661391</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>644318</v>
+        <v>643285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>677359</v>
+        <v>678571</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.856661329185291</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8345477053433247</v>
+        <v>0.8332096404330888</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.877342951747074</v>
+        <v>0.878913251462309</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1337</v>
@@ -4354,19 +4354,19 @@
         <v>1290174</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1263481</v>
+        <v>1262504</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1316409</v>
+        <v>1318169</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8648761942627574</v>
+        <v>0.8648761942627575</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8469824745458169</v>
+        <v>0.8463271919584073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8824628252605834</v>
+        <v>0.8836431902083848</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>18424</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11102</v>
+        <v>11042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30926</v>
+        <v>28991</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0230852884464588</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01391119323672693</v>
+        <v>0.01383563054032043</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03875096740681937</v>
+        <v>0.03632577607219296</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -4479,19 +4479,19 @@
         <v>20056</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13166</v>
+        <v>13543</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28270</v>
+        <v>28351</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02412530790454338</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01583697913010381</v>
+        <v>0.01629061153356039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03400524955918326</v>
+        <v>0.03410289548948974</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -4500,19 +4500,19 @@
         <v>38480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27063</v>
+        <v>28032</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52224</v>
+        <v>51549</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02361591266913093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01660911612301822</v>
+        <v>0.01720385028773593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0320513076628674</v>
+        <v>0.03163679222128598</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>779648</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767146</v>
+        <v>769081</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786970</v>
+        <v>787030</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9769147115535413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9612490325931805</v>
+        <v>0.9636742239278072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9860888067632729</v>
+        <v>0.9861643694596799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1034</v>
@@ -4550,19 +4550,19 @@
         <v>811275</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>803061</v>
+        <v>802980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>818165</v>
+        <v>817788</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9758746920954567</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9659947504408168</v>
+        <v>0.9658971045105105</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9841630208698962</v>
+        <v>0.9837093884664407</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1780</v>
@@ -4571,19 +4571,19 @@
         <v>1590923</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577179</v>
+        <v>1577854</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1602340</v>
+        <v>1601371</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9763840873308691</v>
+        <v>0.976384087330869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9679486923371324</v>
+        <v>0.9683632077787139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9833908838769818</v>
+        <v>0.9827961497122637</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>281996</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07982316085622014</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>551</v>
@@ -4696,19 +4696,19 @@
         <v>370807</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09932065443008187</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>814</v>
@@ -4717,19 +4717,19 @@
         <v>652803</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3250766</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3216064</v>
+        <v>3214453</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3285840</v>
+        <v>3286378</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.92017683914378</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9103540777341044</v>
+        <v>0.9098979529380795</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9301050279488788</v>
+        <v>0.9302573150342013</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4810</v>
@@ -4767,19 +4767,19 @@
         <v>3362624</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3330617</v>
+        <v>3329418</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3392818</v>
+        <v>3394531</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9006793455699181</v>
+        <v>0.900679345569918</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8921063136692446</v>
+        <v>0.8917850814393037</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9087668117709401</v>
+        <v>0.9092256888501539</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7923</v>
@@ -4788,19 +4788,19 @@
         <v>6613390</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6565571</v>
+        <v>6562758</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6657964</v>
+        <v>6656429</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9101588626320234</v>
+        <v>0.9101588626320233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9035778068538121</v>
+        <v>0.9031907051637071</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9162933610681949</v>
+        <v>0.9160820804975792</v>
       </c>
     </row>
     <row r="30">
